--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2996.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2996.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.184122840851623</v>
+        <v>1.830478549003601</v>
       </c>
       <c r="B1">
-        <v>2.468536614674904</v>
+        <v>1.927390098571777</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.105088710784912</v>
       </c>
       <c r="D1">
-        <v>2.281268511269703</v>
+        <v>2.975113153457642</v>
       </c>
       <c r="E1">
-        <v>1.198477206136613</v>
+        <v>4.216721534729004</v>
       </c>
     </row>
   </sheetData>
